--- a/biology/Histoire de la zoologie et de la botanique/David_Burton_Wake/David_Burton_Wake.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/David_Burton_Wake/David_Burton_Wake.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Burton Wake (né le 8 juin 1936, à Webster, Dakota du Sud et mort le 29 avril 2021) est un herpétologiste américain, spécialiste des urodèles.
 Il est le mari de Marvalee H. Wake qui est une spécialiste des gymnophiones. En 2000, il lance la base de données herpétologique en ligne AmphibiaWeb.
@@ -512,7 +524,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cryptotriton wakei (Campbell &amp; Smith, 1998) avec Marvalee H. Wake.
 Wakea Glaw &amp; Vences, 2006
@@ -544,7 +558,9 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aneides vagrans  Wake &amp; Jackman, 1999
